--- a/EZPZ3D/id.xlsx
+++ b/EZPZ3D/id.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lezardvaleth/Documents/Python/EZPZ3D/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FCE8C89-8534-0745-B1DF-B604F7F44C01}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E85D0-9C98-C843-A717-950F67983705}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>char name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,22 +42,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Jena</t>
-  </si>
-  <si>
-    <t>Craghammer</t>
-  </si>
-  <si>
-    <t>jrad</t>
-  </si>
-  <si>
-    <t>K_night</t>
-  </si>
-  <si>
-    <t>Mrjeisson</t>
-  </si>
-  <si>
-    <t>♠TopBR♠</t>
+    <t>dejavo</t>
   </si>
 </sst>
 </file>
@@ -393,7 +378,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B7"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -414,53 +399,33 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -473,5 +438,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/EZPZ3D/id.xlsx
+++ b/EZPZ3D/id.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10909"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lezardvaleth/Documents/Python/EZPZ3D/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lezardvaleth/Documents/Python/EZPZ3D_Compensation_ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36E85D0-9C98-C843-A717-950F67983705}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C97238-0352-2C40-BF99-1FE2414EE18C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>char name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,7 +42,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dejavo</t>
+    <t>Gaara</t>
+  </si>
+  <si>
+    <t>Ducky</t>
+  </si>
+  <si>
+    <t>Nessa</t>
+  </si>
+  <si>
+    <t>ZoCKeRxAUT</t>
   </si>
 </sst>
 </file>
@@ -375,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -399,23 +408,35 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -431,6 +452,34 @@
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
     </row>
   </sheetData>
   <sortState ref="A2:C11">
